--- a/teste.xlsx
+++ b/teste.xlsx
@@ -223,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +238,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -260,12 +264,13 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10020</v>
       </c>
@@ -897,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>10020</v>
       </c>
@@ -930,7 +935,7 @@
       <c r="L15" s="3" t="n">
         <v>41904</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>43705</v>
       </c>
       <c r="N15" s="1" t="s">
